--- a/src/analysis_examples/circadipy/results_circadipy/square_0/cosinor_0_square_0_.xlsx
+++ b/src/analysis_examples/circadipy/results_circadipy/square_0/cosinor_0_square_0_.xlsx
@@ -589,7 +589,7 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>[60.012085253785926, 67.0982009702676]</t>
+          <t>[60.03741705920112, 67.0728691648524]</t>
         </is>
       </c>
       <c r="M2" t="n">
@@ -617,7 +617,7 @@
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>[46.87157104761769, 51.596854833909845]</t>
+          <t>[46.87178736618296, 51.59663851534458]</t>
         </is>
       </c>
       <c r="U2" t="n">
@@ -670,7 +670,7 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>[57.80007414348444, 68.79825569791348]</t>
+          <t>[57.573043646227305, 69.02528619517061]</t>
         </is>
       </c>
       <c r="M3" t="n">
@@ -698,7 +698,7 @@
       </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>[46.99034066823047, 54.00740015350091]</t>
+          <t>[46.98972506106087, 54.00801576067052]</t>
         </is>
       </c>
       <c r="U3" t="n">

--- a/src/analysis_examples/circadipy/results_circadipy/square_0/cosinor_0_square_0_.xlsx
+++ b/src/analysis_examples/circadipy/results_circadipy/square_0/cosinor_0_square_0_.xlsx
@@ -589,7 +589,7 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>[60.03741705920112, 67.0728691648524]</t>
+          <t>[60.06224225549475, 67.04804396855877]</t>
         </is>
       </c>
       <c r="M2" t="n">
@@ -617,7 +617,7 @@
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>[46.87178736618296, 51.59663851534458]</t>
+          <t>[46.86904212125637, 51.59938376027117]</t>
         </is>
       </c>
       <c r="U2" t="n">
@@ -670,7 +670,7 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>[57.573043646227305, 69.02528619517061]</t>
+          <t>[57.68070142528518, 68.91762841611273]</t>
         </is>
       </c>
       <c r="M3" t="n">
@@ -698,7 +698,7 @@
       </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>[46.98972506106087, 54.00801576067052]</t>
+          <t>[46.99475208515752, 54.00298873657386]</t>
         </is>
       </c>
       <c r="U3" t="n">
